--- a/biology/Zoologie/Géocoucou_de_Geoffroy/Géocoucou_de_Geoffroy.xlsx
+++ b/biology/Zoologie/Géocoucou_de_Geoffroy/Géocoucou_de_Geoffroy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ocoucou_de_Geoffroy</t>
+          <t>Géocoucou_de_Geoffroy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neomorphus geoffroyi
 Le Géocoucou de Geoffroy (Neomorphus geoffroyi) est une espèce de géocoucou, oiseau de la famille des Cuculidae. Son aire de répartition s'étend sur le Nicaragua, le Costa Rica, le Panamá, la Colombie, le Brésil, l'Équateur, le Pérou et  la Bolivie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ocoucou_de_Geoffroy</t>
+          <t>Géocoucou_de_Geoffroy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Neomorphus geoffroyi aequatorialis Chapman, 1923
 Neomorphus geoffroyi australis Carriker, 1935
